--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Fp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Fp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D9B9D1-B111-4C4C-AE82-CC4850A001E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0D3733-E353-4735-B364-80467748C9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -246,11 +246,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>B=協議前; 
-A=協議後;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -843,6 +838,11 @@
   <si>
     <t>Usp_L7_LoanIfrs9Fp_Upd</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>B:協議前 
+A:協議後</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1719,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
@@ -1741,10 +1741,10 @@
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="10"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="19"/>
@@ -1843,7 +1843,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>36</v>
@@ -1865,7 +1865,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1">
@@ -1873,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>28</v>
@@ -1887,7 +1887,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1909,7 +1909,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.4">
@@ -1917,10 +1917,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>31</v>
@@ -1930,10 +1930,10 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.4">
@@ -1941,10 +1941,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>3</v>
@@ -1954,10 +1954,10 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1968,7 +1968,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>31</v>
@@ -1979,7 +1979,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1987,10 +1987,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>31</v>
@@ -2001,7 +2001,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2590,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2604,24 +2604,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2646,17 +2646,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="193.8">
       <c r="A2" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="205.2">
       <c r="A3" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2664,17 +2664,17 @@
     </row>
     <row r="5" spans="1:1" s="55" customFormat="1" ht="11.4">
       <c r="A5" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="55" customFormat="1" ht="216.6">
       <c r="A6" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="55" customFormat="1" ht="228">
       <c r="A7" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="55" customFormat="1" ht="11.4">
@@ -2721,12 +2721,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="178.2">
       <c r="A2" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3262,12 +3262,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.6">
       <c r="A1" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="34" customFormat="1" ht="15.6">
       <c r="A2" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="33"/>
@@ -3275,26 +3275,26 @@
     </row>
     <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="12">
       <c r="A4" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="D4" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="40" t="s">
         <v>56</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12">
@@ -3302,13 +3302,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
       <c r="E5" s="45"/>
       <c r="F5" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12">
@@ -3316,13 +3316,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
       <c r="E6" s="45"/>
       <c r="F6" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12">
@@ -3330,15 +3330,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="45"/>
       <c r="F7" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12">
@@ -3346,17 +3346,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>63</v>
-      </c>
       <c r="D8" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12">
@@ -3364,13 +3364,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="44"/>
       <c r="E9" s="45"/>
       <c r="F9" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12">
@@ -3378,18 +3378,18 @@
         <v>6</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="44"/>
       <c r="E10" s="45"/>
       <c r="F10" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="50" customFormat="1" ht="13.8">
       <c r="A12" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="49"/>
